--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T. Vamshidhar\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91228F-EFDE-4B6E-9F8E-C2212A8ABF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A45745-5DDC-4318-99F7-F66D43F0994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1990,8 +1990,8 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="C13" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
